--- a/medicine/Enfance/Rebecca_du_ruisseau_ensoleillé/Rebecca_du_ruisseau_ensoleillé.xlsx
+++ b/medicine/Enfance/Rebecca_du_ruisseau_ensoleillé/Rebecca_du_ruisseau_ensoleillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rebecca_du_ruisseau_ensoleill%C3%A9</t>
+          <t>Rebecca_du_ruisseau_ensoleillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rebecca du ruisseau ensoleillé (Rebecca of Sunnybrook Farm) est un roman américain pour la jeunesse écrit par Kate Douglas Wiggin et publié aux États-Unis en 1903. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rebecca_du_ruisseau_ensoleill%C3%A9</t>
+          <t>Rebecca_du_ruisseau_ensoleillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rebecca Randall, une fillette de dix ans, est envoyée par ses parents pauvres vivre chez deux tantes sévères dans un village du Maine. La joie de vivre de Rebecca perturbe la vie paisible des tantes mais sera une source d'inspiration pour son entourage. Rebecca doit aussi faire face à de nombreuses épreuves, tout en grandissant, gagnant ainsi en sagesse et en compréhension, jusqu'à devenir une jeune femme.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rebecca_du_ruisseau_ensoleill%C3%A9</t>
+          <t>Rebecca_du_ruisseau_ensoleillé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +561,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-1917 : Petit Démon (Rebecca of Sunnybrook Farm, film muet américain en noir et blanc de Marshall Neilan, avec Mary Pickford
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1917 : Petit Démon (Rebecca of Sunnybrook Farm, film muet américain en noir et blanc de Marshall Neilan, avec Mary Pickford
 1932 : Rebecca of Sunnybrook Farm, film américain en noir et blanc d'Alfred Santell, avec Marian Nixon
 1938 : Mam'zelle vedette (Rebecca of Sunnybrook Farm, film américain en noir et blanc d'Allan Dwan, avec Shirley Temple. Adaptation plus libre du roman.
-2020 : The Chronicles of Rebecca, film d'animation (anime) de Yukiyo Teramoto ; Vega Entertainment[1]
-Télévision
-1978 : Rebecca of Sunnybrook Farm, série télévisée britannique de Rodney Bennett, avec Julia Lewis.
-Théâtre
-1909 : Rebecca of Sunnybrook Farm, scénario écrit par l'auteur du roman en collaboration avec Charlotte Thompson. Produit par Klaw and Erlanger. Pièce jouée à Broadway, Boston et en Nouvelle-Angleterre.</t>
+2020 : The Chronicles of Rebecca, film d'animation (anime) de Yukiyo Teramoto ; Vega Entertainment</t>
         </is>
       </c>
     </row>
@@ -565,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rebecca_du_ruisseau_ensoleill%C3%A9</t>
+          <t>Rebecca_du_ruisseau_ensoleillé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,14 +595,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1978 : Rebecca of Sunnybrook Farm, série télévisée britannique de Rodney Bennett, avec Julia Lewis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rebecca_du_ruisseau_ensoleillé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rebecca_du_ruisseau_ensoleill%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1909 : Rebecca of Sunnybrook Farm, scénario écrit par l'auteur du roman en collaboration avec Charlotte Thompson. Produit par Klaw and Erlanger. Pièce jouée à Broadway, Boston et en Nouvelle-Angleterre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rebecca_du_ruisseau_ensoleillé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rebecca_du_ruisseau_ensoleill%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1948 : La Petite Rebecca du ruisseau ensoleillé[2] - Paris : Fernand Hazan, collection « Les Heures claires » no 17 ; traduction de Marguerite Clément, illustrations de Maurice Van Moppès ; in-16, 256 p.
-1961 : Rebecca du ruisseau ensoleillé - Paris : éditions G. P., « collection Spirale » no 36 ; traduction de Marguerite Clément, illustrations de Françoise Bertier ; 252 p.[3]
-1964 : Rebecca du ruisseau ensoleillé - Paris : éditions G. P., collection « Super 1000 » no 17 ; traduction de Marguerite Clément, illustrations de Félix Lacroix[4]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1948 : La Petite Rebecca du ruisseau ensoleillé - Paris : Fernand Hazan, collection « Les Heures claires » no 17 ; traduction de Marguerite Clément, illustrations de Maurice Van Moppès ; in-16, 256 p.
+1961 : Rebecca du ruisseau ensoleillé - Paris : éditions G. P., « collection Spirale » no 36 ; traduction de Marguerite Clément, illustrations de Françoise Bertier ; 252 p.
+1964 : Rebecca du ruisseau ensoleillé - Paris : éditions G. P., collection « Super 1000 » no 17 ; traduction de Marguerite Clément, illustrations de Félix Lacroix</t>
         </is>
       </c>
     </row>
